--- a/data-raw/lito-info.xlsx
+++ b/data-raw/lito-info.xlsx
@@ -5,27 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugh\Documents\GitHub\grattan\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugh\Documents\GitHub\grattan\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="2014-15" sheetId="2" r:id="rId2"/>
+    <sheet name="lito-info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>fy_year</t>
+  </si>
   <si>
     <t>max_lito</t>
   </si>
@@ -36,7 +33,7 @@
     <t>min_bracket</t>
   </si>
   <si>
-    <t>fy_year</t>
+    <t>source</t>
   </si>
   <si>
     <t>2015-16</t>
@@ -55,13 +52,43 @@
   </si>
   <si>
     <t>2010-11</t>
+  </si>
+  <si>
+    <t>2009-10</t>
+  </si>
+  <si>
+    <t>2008-09</t>
+  </si>
+  <si>
+    <t>2007-08</t>
+  </si>
+  <si>
+    <t>2006-07</t>
+  </si>
+  <si>
+    <t>https://www.aph.gov.au/binaries/library/pubs/bd/2005-06/06bd135.pdf</t>
+  </si>
+  <si>
+    <t>2005-06</t>
+  </si>
+  <si>
+    <t>2004-05</t>
+  </si>
+  <si>
+    <t>2003-04</t>
+  </si>
+  <si>
+    <t>2002-03</t>
+  </si>
+  <si>
+    <t>2016-17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +96,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -86,15 +413,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -372,43 +888,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>445</v>
@@ -420,9 +927,9 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>445</v>
@@ -434,9 +941,9 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>445</v>
@@ -448,9 +955,9 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>445</v>
@@ -462,9 +969,9 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1500</v>
@@ -476,9 +983,9 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1500</v>
@@ -488,6 +995,138 @@
       </c>
       <c r="D7">
         <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1350</v>
+      </c>
+      <c r="C8">
+        <v>0.04</v>
+      </c>
+      <c r="D8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1200</v>
+      </c>
+      <c r="C9">
+        <v>0.04</v>
+      </c>
+      <c r="D9">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>750</v>
+      </c>
+      <c r="C10">
+        <v>0.04</v>
+      </c>
+      <c r="D10">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>600</v>
+      </c>
+      <c r="C11">
+        <v>0.04</v>
+      </c>
+      <c r="D11">
+        <v>25000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>235</v>
+      </c>
+      <c r="C12">
+        <v>0.04</v>
+      </c>
+      <c r="D12">
+        <v>21600</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>235</v>
+      </c>
+      <c r="C13">
+        <v>0.04</v>
+      </c>
+      <c r="D13">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>235</v>
+      </c>
+      <c r="C14">
+        <v>0.04</v>
+      </c>
+      <c r="D14">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+      <c r="C15">
+        <v>0.04</v>
+      </c>
+      <c r="D15">
+        <v>18575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>445</v>
+      </c>
+      <c r="C16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D16">
+        <v>37000</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/lito-info.xlsx
+++ b/data-raw/lito-info.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugh\Documents\GitHub\grattan\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugh Parsonage\Documents\Github\grattan\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>fy_year</t>
   </si>
@@ -82,12 +82,27 @@
   </si>
   <si>
     <t>2016-17</t>
+  </si>
+  <si>
+    <t>2001-02</t>
+  </si>
+  <si>
+    <t>2000-01</t>
+  </si>
+  <si>
+    <t>1999-00</t>
+  </si>
+  <si>
+    <t>1998-99</t>
+  </si>
+  <si>
+    <t>1997-98</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -701,6 +716,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -736,6 +768,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -888,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,6 +1178,49 @@
         <v>37000</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>150</v>
+      </c>
+      <c r="C17">
+        <v>0.04</v>
+      </c>
+      <c r="D17">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>0.04</v>
+      </c>
+      <c r="D18">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/lito-info.xlsx
+++ b/data-raw/lito-info.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugh Parsonage\Documents\Github\grattan\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughp\Documents\grattan\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>fy_year</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>1997-98</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2019-20</t>
   </si>
 </sst>
 </file>
@@ -937,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +973,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>445</v>
@@ -978,7 +987,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>445</v>
@@ -992,7 +1001,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>445</v>
@@ -1006,7 +1015,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>445</v>
@@ -1020,66 +1029,66 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1500</v>
+        <v>445</v>
       </c>
       <c r="C6">
-        <v>0.04</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D6">
-        <v>30000</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1500</v>
+        <v>445</v>
       </c>
       <c r="C7">
-        <v>0.04</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D7">
-        <v>30000</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1350</v>
+        <v>445</v>
       </c>
       <c r="C8">
-        <v>0.04</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>30000</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1200</v>
+        <v>445</v>
       </c>
       <c r="C9">
-        <v>0.04</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D9">
-        <v>30000</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="C10">
         <v>0.04</v>
@@ -1090,134 +1099,190 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="C11">
         <v>0.04</v>
       </c>
       <c r="D11">
-        <v>25000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>235</v>
+        <v>1350</v>
       </c>
       <c r="C12">
         <v>0.04</v>
       </c>
       <c r="D12">
-        <v>21600</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>235</v>
+        <v>1200</v>
       </c>
       <c r="C13">
         <v>0.04</v>
       </c>
       <c r="D13">
-        <v>21600</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>235</v>
+        <v>750</v>
       </c>
       <c r="C14">
         <v>0.04</v>
       </c>
       <c r="D14">
-        <v>21600</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="C15">
         <v>0.04</v>
       </c>
       <c r="D15">
-        <v>18575</v>
+        <v>25000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>445</v>
+        <v>235</v>
       </c>
       <c r="C16">
-        <v>1.4999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D16">
-        <v>37000</v>
+        <v>21600</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="C17">
         <v>0.04</v>
       </c>
       <c r="D17">
-        <v>20700</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="C18">
         <v>0.04</v>
       </c>
       <c r="D18">
-        <v>20700</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>150</v>
+      </c>
+      <c r="C19">
+        <v>0.04</v>
+      </c>
+      <c r="D19">
+        <v>18575</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>445</v>
+      </c>
+      <c r="C20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>37000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <v>0.04</v>
+      </c>
+      <c r="D21">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>150</v>
+      </c>
+      <c r="C22">
+        <v>0.04</v>
+      </c>
+      <c r="D22">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data-raw/lito-info.xlsx
+++ b/data-raw/lito-info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>fy_year</t>
   </si>
@@ -946,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,21 +1231,21 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>445</v>
+        <v>150</v>
       </c>
       <c r="C20">
-        <v>1.4999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D20">
-        <v>37000</v>
+        <v>20700</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>150</v>
@@ -1259,30 +1259,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>150</v>
-      </c>
-      <c r="C22">
-        <v>0.04</v>
-      </c>
-      <c r="D22">
-        <v>20700</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data-raw/lito-info.xlsx
+++ b/data-raw/lito-info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughp\Documents\grattan\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcowgill/Dropbox (Personal)/R/packages/hughparsonage/grattan/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B601520D-1B1E-3945-8447-55AA87F031AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="28800" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lito-info" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>fy_year</t>
   </si>
@@ -106,12 +107,15 @@
   </si>
   <si>
     <t>2019-20</t>
+  </si>
+  <si>
+    <t>2020-21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -945,16 +949,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,9 +975,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>445</v>
@@ -985,9 +989,9 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>445</v>
@@ -999,9 +1003,9 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>445</v>
@@ -1013,9 +1017,9 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>445</v>
@@ -1027,9 +1031,9 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>445</v>
@@ -1041,9 +1045,9 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>445</v>
@@ -1055,9 +1059,9 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>445</v>
@@ -1069,9 +1073,9 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>445</v>
@@ -1083,23 +1087,23 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>445</v>
+      </c>
+      <c r="C10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1500</v>
-      </c>
-      <c r="C10">
-        <v>0.04</v>
-      </c>
-      <c r="D10">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
       </c>
       <c r="B11">
         <v>1500</v>
@@ -1111,12 +1115,12 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="C12">
         <v>0.04</v>
@@ -1125,12 +1129,12 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1200</v>
+        <v>1350</v>
       </c>
       <c r="C13">
         <v>0.04</v>
@@ -1139,12 +1143,12 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="C14">
         <v>0.04</v>
@@ -1153,43 +1157,40 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="C15">
         <v>0.04</v>
       </c>
       <c r="D15">
-        <v>25000</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>235</v>
+        <v>600</v>
       </c>
       <c r="C16">
         <v>0.04</v>
       </c>
       <c r="D16">
-        <v>21600</v>
+        <v>25000</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>235</v>
@@ -1200,10 +1201,13 @@
       <c r="D17">
         <v>21600</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>235</v>
@@ -1215,23 +1219,23 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="C19">
         <v>0.04</v>
       </c>
       <c r="D19">
-        <v>18575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>150</v>
@@ -1240,12 +1244,12 @@
         <v>0.04</v>
       </c>
       <c r="D20">
-        <v>20700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>150</v>
@@ -1257,18 +1261,32 @@
         <v>20700</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>150</v>
+      </c>
+      <c r="C22">
+        <v>0.04</v>
+      </c>
+      <c r="D22">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
